--- a/document/交易大盘数据库设计表@20180302.xlsx
+++ b/document/交易大盘数据库设计表@20180302.xlsx
@@ -1015,12 +1015,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -1034,18 +1034,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1076,56 +1064,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1139,9 +1083,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1156,6 +1099,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1164,10 +1130,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1195,16 +1190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,20 +1212,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,7 +1257,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1287,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,43 +1365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,19 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,13 +1395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,43 +1413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,25 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,17 +1523,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,16 +1551,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,6 +1603,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1629,166 +1620,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1894,63 +1876,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,31 +1930,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1996,7 +1966,7 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2345,7 +2315,7 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="46"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -2410,7 +2380,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="52"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="2:11">
       <c r="B5" s="9" t="s">
@@ -2498,7 +2468,7 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="11"/>
@@ -2522,7 +2492,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="68"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="11"/>
       <c r="K9" s="10"/>
     </row>
@@ -2626,15 +2596,15 @@
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="2:11">
       <c r="B14" s="9"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="69"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B15" s="4" t="s">
@@ -2712,7 +2682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" s="55" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="18" s="37" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
         <v>12</v>
@@ -2735,7 +2705,7 @@
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="52"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="15" customHeight="1" spans="2:11">
@@ -2914,7 +2884,7 @@
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="49"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="2:11">
       <c r="B27" s="9" t="s">
@@ -3052,7 +3022,7 @@
       <c r="J32" s="11">
         <v>1</v>
       </c>
-      <c r="K32" s="70" t="s">
+      <c r="K32" s="66" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3074,7 +3044,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="70"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="2:11">
       <c r="B34" s="9" t="s">
@@ -3259,150 +3229,150 @@
     </row>
     <row r="43" ht="14.25" customHeight="1"/>
     <row r="44" ht="13.5" customHeight="1" spans="2:11">
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="F45" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="63" t="s">
+      <c r="G45" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="63" t="s">
+      <c r="I45" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="63" t="s">
+      <c r="J45" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="62" t="s">
+      <c r="K45" s="58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="61">
         <v>18</v>
       </c>
-      <c r="F46" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="65"/>
-      <c r="K46" s="71" t="s">
+      <c r="F46" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="61"/>
+      <c r="K46" s="67" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="65">
+      <c r="E47" s="61">
         <v>11</v>
       </c>
-      <c r="F47" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="71"/>
+      <c r="F47" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="67"/>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="61">
         <v>20</v>
       </c>
-      <c r="F48" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="66"/>
+      <c r="F48" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
     </row>
     <row r="49" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="61">
         <v>11</v>
       </c>
-      <c r="F49" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="66" t="s">
+      <c r="F49" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3422,103 +3392,103 @@
       <c r="F50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="66"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="62"/>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D51" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="65" t="s">
+      <c r="E51" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65">
+      <c r="F51" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61">
         <v>0</v>
       </c>
-      <c r="K51" s="66"/>
+      <c r="K51" s="62"/>
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="65" t="s">
+      <c r="D52" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="65" t="s">
+      <c r="E52" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65">
+      <c r="F52" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61">
         <v>0</v>
       </c>
-      <c r="K52" s="66"/>
+      <c r="K52" s="62"/>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="61">
         <v>200</v>
       </c>
-      <c r="F53" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="66" t="s">
+      <c r="F53" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="62" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="66"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="63"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="62"/>
     </row>
     <row r="55" ht="14.25" customHeight="1"/>
     <row r="56" ht="15.6" spans="2:11">
@@ -3619,7 +3589,7 @@
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="52"/>
+      <c r="K59" s="49"/>
     </row>
     <row r="60" ht="14.25" customHeight="1" spans="2:11">
       <c r="B60" s="9" t="s">
@@ -4362,13 +4332,13 @@
       <c r="H18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" s="54" customFormat="1" ht="15.6" customHeight="1" spans="2:11">
+    <row r="19" s="51" customFormat="1" ht="15.6" customHeight="1" spans="2:11">
       <c r="B19" s="9" t="s">
         <v>139</v>
       </c>
@@ -4692,7 +4662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" s="55" customFormat="1" ht="14.25" customHeight="1" spans="2:11">
+    <row r="34" s="37" customFormat="1" ht="14.25" customHeight="1" spans="2:11">
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -5115,7 +5085,7 @@
   <dimension ref="B2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5220,7 +5190,7 @@
       </c>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="44"/>
@@ -5244,7 +5214,7 @@
       </c>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="44"/>
       <c r="K6" s="43"/>
     </row>
@@ -5274,7 +5244,7 @@
       <c r="B8" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="43" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -5511,7 +5481,7 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -5574,7 +5544,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5600,7 +5570,7 @@
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="52"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="2:11">
       <c r="B23" s="42" t="s">
@@ -5792,7 +5762,7 @@
       <c r="J30" s="11">
         <v>1</v>
       </c>
-      <c r="K30" s="53" t="s">
+      <c r="K30" s="50" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5817,24 +5787,24 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" s="37" customFormat="1" ht="14.25" customHeight="1" spans="2:11">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="44">
         <v>200</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="45" t="s">
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="43" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5885,7 +5855,7 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="46"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -5950,7 +5920,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="52" t="s">
+      <c r="K38" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6000,7 +5970,7 @@
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="52"/>
+      <c r="K40" s="49"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="2:11">
       <c r="B41" s="9" t="s">
@@ -6246,7 +6216,7 @@
       <c r="F51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="49"/>
+      <c r="G51" s="46"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -6261,7 +6231,7 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="46"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -6326,7 +6296,7 @@
         <v>15</v>
       </c>
       <c r="J55" s="11"/>
-      <c r="K55" s="52" t="s">
+      <c r="K55" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6516,7 +6486,7 @@
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="53" t="s">
+      <c r="K63" s="50" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6589,7 +6559,7 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="46"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
@@ -6652,7 +6622,7 @@
         <v>15</v>
       </c>
       <c r="J70" s="11"/>
-      <c r="K70" s="52" t="s">
+      <c r="K70" s="49" t="s">
         <v>84</v>
       </c>
     </row>
